--- a/Lecture 3/Transposition_Techniques.xlsx
+++ b/Lecture 3/Transposition_Techniques.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\MyTerm\5-Computer Security\Lectures\Lecture 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2-GitHub\Information_security\Lecture 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E50C1D0-85AB-41DE-B632-4F9B2892899C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5470D0-6975-4F0D-A2B0-8094925DD2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
   <si>
     <t xml:space="preserve">Rail Fence Cipher Encryption </t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">From The Table Git The plain Text </t>
+  </si>
+  <si>
+    <t xml:space="preserve">meet me after the toga party </t>
   </si>
 </sst>
 </file>
@@ -622,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="Q2:AD37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X44" sqref="X44"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -640,7 +643,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="AC4" s="1" t="s">
         <v>2</v>
@@ -702,9 +705,7 @@
       </c>
     </row>
     <row r="9" spans="17:29" x14ac:dyDescent="0.35">
-      <c r="Q9" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" s="2" t="s">
         <v>7</v>
       </c>
@@ -825,9 +826,7 @@
       </c>
     </row>
     <row r="16" spans="17:29" x14ac:dyDescent="0.35">
-      <c r="Q16" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" s="2" t="s">
         <v>7</v>
       </c>

--- a/Lecture 3/Transposition_Techniques.xlsx
+++ b/Lecture 3/Transposition_Techniques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2-GitHub\Information_security\Lecture 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5470D0-6975-4F0D-A2B0-8094925DD2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5E65DE-B9BE-4C67-ABD3-8B309BC7126A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="46">
   <si>
     <t xml:space="preserve">Rail Fence Cipher Encryption </t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t xml:space="preserve">meet me after the toga party </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note IF there is no letters to add like what happen in last row add X </t>
   </si>
 </sst>
 </file>
@@ -309,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -343,6 +346,7 @@
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -623,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="Q2:AD37"/>
+  <dimension ref="P2:AD37"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="AB33" sqref="AB33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -861,7 +865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="23:30" x14ac:dyDescent="0.35">
+    <row r="19" spans="16:30" x14ac:dyDescent="0.35">
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
@@ -872,7 +876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="23:30" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="16:30" ht="18.5" x14ac:dyDescent="0.45">
       <c r="Z21" s="12"/>
       <c r="AA21" s="12"/>
       <c r="AB21" s="12"/>
@@ -880,7 +884,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="23:30" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="16:30" ht="18.5" x14ac:dyDescent="0.45">
       <c r="X23" t="s">
         <v>27</v>
       </c>
@@ -891,13 +895,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="23:30" ht="21" x14ac:dyDescent="0.5">
+    <row r="24" spans="16:30" ht="21" x14ac:dyDescent="0.5">
       <c r="AB24" s="14"/>
       <c r="AC24" s="15" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="23:30" x14ac:dyDescent="0.35">
+    <row r="25" spans="16:30" x14ac:dyDescent="0.35">
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="16:30" x14ac:dyDescent="0.35">
       <c r="W28" s="17">
         <v>7</v>
       </c>
@@ -923,7 +938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="23:30" x14ac:dyDescent="0.35">
+    <row r="29" spans="16:30" x14ac:dyDescent="0.35">
       <c r="W29" s="17" t="s">
         <v>29</v>
       </c>
@@ -946,7 +961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="23:30" x14ac:dyDescent="0.35">
+    <row r="30" spans="16:30" x14ac:dyDescent="0.35">
       <c r="W30" s="17" t="s">
         <v>6</v>
       </c>
@@ -969,7 +984,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="23:30" x14ac:dyDescent="0.35">
+    <row r="31" spans="16:30" x14ac:dyDescent="0.35">
       <c r="W31" s="17" t="s">
         <v>7</v>
       </c>
@@ -992,7 +1007,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="23:30" x14ac:dyDescent="0.35">
+    <row r="32" spans="16:30" x14ac:dyDescent="0.35">
       <c r="W32" s="17" t="s">
         <v>40</v>
       </c>

--- a/Lecture 3/Transposition_Techniques.xlsx
+++ b/Lecture 3/Transposition_Techniques.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2-GitHub\Information_security\Lecture 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5E65DE-B9BE-4C67-ABD3-8B309BC7126A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59B8058-EFDA-47C8-9BB1-0648407408AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -347,6 +347,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="P2:AD37"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB33" sqref="AB33"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="H6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC29" sqref="W28:AC29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -789,40 +792,40 @@
       </c>
     </row>
     <row r="15" spans="17:29" x14ac:dyDescent="0.35">
-      <c r="Q15" s="2" t="s">
+      <c r="Q15" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="R15" s="2" t="s">
+      <c r="R15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="S15" s="2" t="s">
+      <c r="S15" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="T15" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V15" s="2" t="s">
+      <c r="U15" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="V15" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="W15" s="2" t="s">
+      <c r="W15" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="X15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y15" s="2" t="s">
+      <c r="X15" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y15" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="Z15" s="2" t="s">
+      <c r="Z15" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="AA15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB15" s="2" t="s">
+      <c r="AA15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB15" s="22" t="s">
         <v>5</v>
       </c>
       <c r="AC15" s="6" t="s">
@@ -830,38 +833,38 @@
       </c>
     </row>
     <row r="16" spans="17:29" x14ac:dyDescent="0.35">
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="S16" s="2" t="s">
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="S16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="T16" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="U16" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="V16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="Y16" s="2" t="s">
+      <c r="V16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="W16" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="Z16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="AB16" s="2" t="s">
+      <c r="Z16" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="22" t="s">
         <v>6</v>
       </c>
     </row>
